--- a/pollutants.xlsx
+++ b/pollutants.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD32B1EA-205F-4CC4-A84B-D219E22E8A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACAEF08-F5A4-489D-BB68-EBFB5644F0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -73,7 +86,7 @@
     <t>tss_interp</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Hour</t>
   </si>
 </sst>
 </file>
@@ -81,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,7 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -444,9 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -574,7 +585,8 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B3" s="2">
         <v>1.0416666666666666E-2</v>
@@ -606,7 +618,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="B4" s="2">
         <v>2.0833333333333332E-2</v>
@@ -638,7 +650,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="B5" s="2">
         <v>3.125E-2</v>
@@ -670,7 +682,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>4.1666666666666699E-2</v>
@@ -708,7 +720,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="B7" s="2">
         <v>5.2083333333333301E-2</v>
@@ -740,7 +752,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="B8" s="2">
         <v>6.25E-2</v>
@@ -772,7 +784,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="B9" s="2">
         <v>7.2916666666666699E-2</v>
@@ -804,7 +816,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
         <v>8.3333333333333301E-2</v>
@@ -815,6 +827,30 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10">
+        <f>M10-0.1*M10</f>
+        <v>14.700000000000005</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:J10" si="0">N10-0.1*N10</f>
+        <v>1.35</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>14.85</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>230.4</v>
+      </c>
       <c r="K10">
         <v>2.1139999999999999</v>
       </c>
@@ -842,7 +878,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9.0000000000000018</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
         <v>9.375E-2</v>
@@ -874,7 +910,8 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <f t="shared" ref="A12:A43" si="1">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B12" s="2">
         <v>0.104166666666667</v>
@@ -906,7 +943,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="B13" s="2">
         <v>0.114583333333333</v>
@@ -938,7 +975,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="B14" s="2">
         <v>0.125</v>
@@ -976,7 +1013,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>2.75</v>
       </c>
       <c r="B15" s="2">
         <v>0.13541666666666699</v>
@@ -1008,7 +1045,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2">
         <v>0.14583333333333301</v>
@@ -1040,7 +1077,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="B17" s="2">
         <v>0.15625</v>
@@ -1072,7 +1109,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>3.5</v>
       </c>
       <c r="B18" s="2">
         <v>0.16666666666666699</v>
@@ -1128,7 +1165,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="B19" s="2">
         <v>0.17708333333333301</v>
@@ -1160,7 +1197,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2">
         <v>0.1875</v>
@@ -1192,7 +1229,8 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <f t="shared" ref="A21:A52" si="2">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B21" s="2">
         <v>0.19791666666666699</v>
@@ -1224,7 +1262,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2">
         <v>0.20833333333333301</v>
@@ -1262,7 +1300,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>4.25</v>
       </c>
       <c r="B23" s="2">
         <v>0.21875</v>
@@ -1294,11 +1332,35 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>4.5</v>
       </c>
       <c r="B24" s="2">
         <v>0.22916666666666699</v>
       </c>
+      <c r="E24">
+        <f>M24+0.1*M24</f>
+        <v>68.75</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:J24" si="3">N24+0.1*N24</f>
+        <v>6.6</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>76.45</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>706.75</v>
+      </c>
       <c r="K24">
         <v>2.8940000000000001</v>
       </c>
@@ -1326,7 +1388,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>4.75</v>
       </c>
       <c r="B25" s="2">
         <v>0.23958333333333301</v>
@@ -1358,7 +1420,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2">
         <v>0.25</v>
@@ -1396,7 +1458,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>5.25</v>
       </c>
       <c r="B27" s="2">
         <v>0.26041666666666702</v>
@@ -1428,7 +1490,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>5.5</v>
       </c>
       <c r="B28" s="2">
         <v>0.27083333333333298</v>
@@ -1460,7 +1522,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2">
         <v>0.28125</v>
@@ -1492,7 +1554,8 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <f t="shared" ref="A30:A61" si="4">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B30" s="2">
         <v>0.29166666666666702</v>
@@ -1548,7 +1611,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>5.75</v>
       </c>
       <c r="B31" s="2">
         <v>0.30208333333333298</v>
@@ -1580,7 +1643,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
         <v>0.3125</v>
@@ -1612,7 +1675,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>6.25</v>
       </c>
       <c r="B33" s="2">
         <v>0.32291666666666702</v>
@@ -1644,7 +1707,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>6.5</v>
       </c>
       <c r="B34" s="2">
         <v>0.33333333333333298</v>
@@ -1682,11 +1745,35 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33.000000000000007</v>
+        <v>6.75</v>
       </c>
       <c r="B35" s="2">
         <v>0.34375</v>
       </c>
+      <c r="E35">
+        <f>M35+0.1*M35</f>
+        <v>72.875</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:J35" si="5">N35+0.1*N35</f>
+        <v>9.796875</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>88.137500000000003</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>3.9187500000000002</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>93.087500000000006</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>808.70624999999995</v>
+      </c>
       <c r="K35">
         <v>4.9740000000000002</v>
       </c>
@@ -1714,7 +1801,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34.000000000000007</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2">
         <v>0.35416666666666702</v>
@@ -1746,7 +1833,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35.000000000000007</v>
+        <v>7.25</v>
       </c>
       <c r="B37" s="2">
         <v>0.36458333333333298</v>
@@ -1778,7 +1865,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36.000000000000007</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2">
         <v>0.375</v>
@@ -1816,7 +1903,8 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
+        <f t="shared" ref="A39:A70" si="6">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B39" s="2">
         <v>0.38541666666666702</v>
@@ -1848,7 +1936,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>7.5</v>
       </c>
       <c r="B40" s="2">
         <v>0.39583333333333298</v>
@@ -1880,11 +1968,35 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>7.75</v>
       </c>
       <c r="B41" s="2">
         <v>0.40625</v>
       </c>
+      <c r="E41">
+        <f>M41+0.1*M41</f>
+        <v>54.725000000000001</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:J41" si="7">N41+0.1*N41</f>
+        <v>9.6731249999999989</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="7"/>
+        <v>79.0625</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>5.9812500000000002</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="7"/>
+        <v>87.3125</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>758.79375000000005</v>
+      </c>
       <c r="K41">
         <v>3.9667500000000002</v>
       </c>
@@ -1912,7 +2024,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B42" s="2">
         <v>0.41666666666666702</v>
@@ -1950,7 +2062,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>8.25</v>
       </c>
       <c r="B43" s="2">
         <v>0.42708333333333298</v>
@@ -1982,7 +2094,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>8.5</v>
       </c>
       <c r="B44" s="2">
         <v>0.4375</v>
@@ -2014,7 +2126,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>8.75</v>
       </c>
       <c r="B45" s="2">
         <v>0.44791666666666702</v>
@@ -2046,7 +2158,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2">
         <v>0.45833333333333298</v>
@@ -2102,7 +2214,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B47" s="2">
         <v>0.46875</v>
@@ -2134,7 +2246,8 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <f t="shared" ref="A48:A79" si="8">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B48" s="2">
         <v>0.47916666666666702</v>
@@ -2166,7 +2279,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>9.25</v>
       </c>
       <c r="B49" s="2">
         <v>0.48958333333333298</v>
@@ -2198,7 +2311,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>9.5</v>
       </c>
       <c r="B50" s="2">
         <v>0.5</v>
@@ -2236,11 +2349,35 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>9.75</v>
       </c>
       <c r="B51" s="2">
         <v>0.51041666666666696</v>
       </c>
+      <c r="E51">
+        <f>M51+0.1*M51</f>
+        <v>31.35</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:J51" si="9">N51+0.1*N51</f>
+        <v>8.9856249999999989</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="9"/>
+        <v>57.0625</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="9"/>
+        <v>6.3250000000000002</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="9"/>
+        <v>88.34375</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="9"/>
+        <v>768.07500000000005</v>
+      </c>
       <c r="K51">
         <v>4.0209999999999999</v>
       </c>
@@ -2268,7 +2405,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2">
         <v>0.52083333333333304</v>
@@ -2300,7 +2437,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>10.25</v>
       </c>
       <c r="B53" s="2">
         <v>0.53125</v>
@@ -2332,7 +2469,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>10.5</v>
       </c>
       <c r="B54" s="2">
         <v>0.54166666666666696</v>
@@ -2370,7 +2507,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>10.75</v>
       </c>
       <c r="B55" s="2">
         <v>0.55208333333333304</v>
@@ -2402,7 +2539,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2">
         <v>0.5625</v>
@@ -2434,11 +2571,36 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
+        <f t="shared" ref="A57:A98" si="10">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B57" s="2">
         <v>0.57291666666666696</v>
       </c>
+      <c r="E57">
+        <f>M57-0.06*M57</f>
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57:J57" si="11">N57-0.06*N57</f>
+        <v>7.0793749999999998</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="11"/>
+        <v>33.957500000000003</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="11"/>
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="11"/>
+        <v>81.486249999999998</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="11"/>
+        <v>708.52499999999998</v>
+      </c>
       <c r="K57">
         <v>4.0209999999999999</v>
       </c>
@@ -2466,7 +2628,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B58" s="2">
         <v>0.58333333333333304</v>
@@ -2504,7 +2666,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>11.25</v>
       </c>
       <c r="B59" s="2">
         <v>0.59375</v>
@@ -2536,7 +2698,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>11.5</v>
       </c>
       <c r="B60" s="2">
         <v>0.60416666666666696</v>
@@ -2568,7 +2730,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>11.75</v>
       </c>
       <c r="B61" s="2">
         <v>0.61458333333333304</v>
@@ -2600,7 +2762,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B62" s="2">
         <v>0.625</v>
@@ -2656,7 +2818,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>12.25</v>
       </c>
       <c r="B63" s="2">
         <v>0.63541666666666696</v>
@@ -2688,7 +2850,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>12.5</v>
       </c>
       <c r="B64" s="2">
         <v>0.64583333333333304</v>
@@ -2720,7 +2882,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B65" s="2">
         <v>0.65625</v>
@@ -2752,7 +2914,8 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
+        <f t="shared" ref="A66:A98" si="12">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B66" s="2">
         <v>0.66666666666666696</v>
@@ -2790,11 +2953,35 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65.000000000000014</v>
+        <v>12.75</v>
       </c>
       <c r="B67" s="2">
         <v>0.67708333333333304</v>
       </c>
+      <c r="E67">
+        <f>M67-0.06*M67</f>
+        <v>7.7549999999999999</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:J67" si="13">N67-0.06*N67</f>
+        <v>5.6987500000000004</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="13"/>
+        <v>18.388750000000002</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="13"/>
+        <v>2.5262500000000001</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="13"/>
+        <v>72.086250000000007</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="13"/>
+        <v>663.875</v>
+      </c>
       <c r="K67">
         <v>6.4909999999999997</v>
       </c>
@@ -2822,7 +3009,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66.000000000000014</v>
+        <v>13</v>
       </c>
       <c r="B68" s="2">
         <v>0.6875</v>
@@ -2854,7 +3041,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67.000000000000014</v>
+        <v>13.25</v>
       </c>
       <c r="B69" s="2">
         <v>0.69791666666666696</v>
@@ -2886,7 +3073,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68.000000000000014</v>
+        <v>13.5</v>
       </c>
       <c r="B70" s="2">
         <v>0.70833333333333304</v>
@@ -2924,7 +3111,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69.000000000000014</v>
+        <v>13.75</v>
       </c>
       <c r="B71" s="2">
         <v>0.71875</v>
@@ -2956,7 +3143,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70.000000000000014</v>
+        <v>14</v>
       </c>
       <c r="B72" s="2">
         <v>0.72916666666666696</v>
@@ -2988,11 +3175,35 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71.000000000000014</v>
+        <v>14.25</v>
       </c>
       <c r="B73" s="2">
         <v>0.73958333333333304</v>
       </c>
+      <c r="E73">
+        <f>M73-0.06*M73</f>
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73:J73" si="14">N73-0.06*N73</f>
+        <v>4.6412500000000003</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="14"/>
+        <v>14.51125</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="14"/>
+        <v>2.1737500000000001</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="14"/>
+        <v>54.813749999999999</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="14"/>
+        <v>558.125</v>
+      </c>
       <c r="K73">
         <v>7.3377499999999998</v>
       </c>
@@ -3020,7 +3231,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72.000000000000014</v>
+        <v>8</v>
       </c>
       <c r="B74" s="2">
         <v>0.75</v>
@@ -3058,7 +3269,8 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
+        <f t="shared" ref="A75:A98" si="15">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B75" s="2">
         <v>0.76041666666666696</v>
@@ -3090,7 +3302,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>14.5</v>
       </c>
       <c r="B76" s="2">
         <v>0.77083333333333304</v>
@@ -3122,7 +3334,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>14.75</v>
       </c>
       <c r="B77" s="2">
         <v>0.78125</v>
@@ -3154,7 +3366,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B78" s="2">
         <v>0.79166666666666696</v>
@@ -3210,7 +3422,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>15.25</v>
       </c>
       <c r="B79" s="2">
         <v>0.80208333333333304</v>
@@ -3242,7 +3454,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>15.5</v>
       </c>
       <c r="B80" s="2">
         <v>0.8125</v>
@@ -3274,7 +3486,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>15.75</v>
       </c>
       <c r="B81" s="2">
         <v>0.82291666666666696</v>
@@ -3306,7 +3518,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="B82" s="2">
         <v>0.83333333333333304</v>
@@ -3317,6 +3529,30 @@
       <c r="D82">
         <v>0</v>
       </c>
+      <c r="E82">
+        <f>M82+0.12*M82</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ref="F82:J82" si="16">N82+0.12*N82</f>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="16"/>
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="16"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="16"/>
+        <v>30.8</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="16"/>
+        <v>334.32</v>
+      </c>
       <c r="K82">
         <v>5.3</v>
       </c>
@@ -3344,7 +3580,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B83" s="2">
         <v>0.84375</v>
@@ -3376,7 +3612,8 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>82</v>
+        <f t="shared" ref="A84:A98" si="17">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B84" s="2">
         <v>0.85416666666666696</v>
@@ -3408,7 +3645,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>16.25</v>
       </c>
       <c r="B85" s="2">
         <v>0.86458333333333304</v>
@@ -3440,7 +3677,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>16.5</v>
       </c>
       <c r="B86" s="2">
         <v>0.875</v>
@@ -3496,7 +3733,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>16.75</v>
       </c>
       <c r="B87" s="2">
         <v>0.88541666666666696</v>
@@ -3528,7 +3765,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="B88" s="2">
         <v>0.89583333333333304</v>
@@ -3560,7 +3797,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>17.25</v>
       </c>
       <c r="B89" s="2">
         <v>0.90625</v>
@@ -3592,7 +3829,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>17.5</v>
       </c>
       <c r="B90" s="2">
         <v>0.91666666666666696</v>
@@ -3630,7 +3867,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>17.75</v>
       </c>
       <c r="B91" s="2">
         <v>0.92708333333333304</v>
@@ -3662,11 +3899,35 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B92" s="2">
         <v>0.9375</v>
       </c>
+      <c r="E92">
+        <f>M92+0.12*M92</f>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ref="F92:J92" si="18">N92+0.12*N92</f>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="18"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="18"/>
+        <v>6.72</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="18"/>
+        <v>54.32</v>
+      </c>
       <c r="K92">
         <v>1.7</v>
       </c>
@@ -3694,7 +3955,8 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>91</v>
+        <f t="shared" ref="A93:A98" si="19">1/4</f>
+        <v>0.25</v>
       </c>
       <c r="B93" s="2">
         <v>0.94791666666666696</v>
@@ -3726,7 +3988,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B94" s="2">
         <v>0.95833333333333304</v>
@@ -3764,7 +4026,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>18.25</v>
       </c>
       <c r="B95" s="2">
         <v>0.96875</v>
@@ -3796,7 +4058,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>18.5</v>
       </c>
       <c r="B96" s="2">
         <v>0.97916666666666696</v>
@@ -3828,7 +4090,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>18.75</v>
       </c>
       <c r="B97" s="2">
         <v>0.98958333333333304</v>
@@ -3860,7 +4122,7 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="B98" s="2">
         <v>1</v>

--- a/pollutants.xlsx
+++ b/pollutants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACAEF08-F5A4-489D-BB68-EBFB5644F0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA769FF-5CC8-4234-811A-9F9EB46016C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,9 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -471,7 +473,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -527,9 +529,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -582,11 +584,14 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2">
+        <f>A2*15/60</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f>1/4</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B3" s="2">
         <v>1.0416666666666666E-2</v>
@@ -615,10 +620,14 @@
       <c r="R3">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="0">A3*15/60</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B4" s="2">
         <v>2.0833333333333332E-2</v>
@@ -647,10 +656,14 @@
       <c r="R4">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>3.125E-2</v>
@@ -679,10 +692,14 @@
       <c r="R5">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="B6" s="2">
         <v>4.1666666666666699E-2</v>
@@ -717,10 +734,14 @@
       <c r="R6">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="B7" s="2">
         <v>5.2083333333333301E-2</v>
@@ -749,10 +770,14 @@
       <c r="R7">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="B8" s="2">
         <v>6.25E-2</v>
@@ -781,10 +806,14 @@
       <c r="R8">
         <v>192</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>7.2916666666666699E-2</v>
@@ -813,10 +842,14 @@
       <c r="R9">
         <v>224</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="B10" s="2">
         <v>8.3333333333333301E-2</v>
@@ -832,23 +865,23 @@
         <v>14.700000000000005</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:J10" si="0">N10-0.1*N10</f>
+        <f t="shared" ref="F10:J10" si="1">N10-0.1*N10</f>
         <v>1.35</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.85</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>230.4</v>
       </c>
       <c r="K10">
@@ -875,10 +908,14 @@
       <c r="R10">
         <v>256</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="B11" s="2">
         <v>9.375E-2</v>
@@ -907,11 +944,14 @@
       <c r="R11">
         <v>288</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" ref="A12:A43" si="1">1/4</f>
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="B12" s="2">
         <v>0.104166666666667</v>
@@ -940,10 +980,14 @@
       <c r="R12">
         <v>320</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
         <v>0.114583333333333</v>
@@ -972,10 +1016,14 @@
       <c r="R13">
         <v>352</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="B14" s="2">
         <v>0.125</v>
@@ -1010,10 +1058,14 @@
       <c r="R14">
         <v>384</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="B15" s="2">
         <v>0.13541666666666699</v>
@@ -1042,10 +1094,14 @@
       <c r="R15">
         <v>416</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="B16" s="2">
         <v>0.14583333333333301</v>
@@ -1074,10 +1130,14 @@
       <c r="R16">
         <v>448</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
         <v>0.15625</v>
@@ -1106,10 +1166,14 @@
       <c r="R17">
         <v>480</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="B18" s="2">
         <v>0.16666666666666699</v>
@@ -1162,10 +1226,14 @@
       <c r="R18">
         <v>512</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>1.0625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="B19" s="2">
         <v>0.17708333333333301</v>
@@ -1194,10 +1262,14 @@
       <c r="R19">
         <v>533.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="B20" s="2">
         <v>0.1875</v>
@@ -1226,11 +1298,14 @@
       <c r="R20">
         <v>555.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>1.1875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" ref="A21:A52" si="2">1/4</f>
-        <v>0.25</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
         <v>0.19791666666666699</v>
@@ -1259,10 +1334,14 @@
       <c r="R21">
         <v>577.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="B22" s="2">
         <v>0.20833333333333301</v>
@@ -1297,10 +1376,14 @@
       <c r="R22">
         <v>599</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="B23" s="2">
         <v>0.21875</v>
@@ -1329,10 +1412,14 @@
       <c r="R23">
         <v>620.75</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="B24" s="2">
         <v>0.22916666666666699</v>
@@ -1342,23 +1429,23 @@
         <v>68.75</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:J24" si="3">N24+0.1*N24</f>
+        <f t="shared" ref="F24:J24" si="2">N24+0.1*N24</f>
         <v>6.6</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>76.45</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>706.75</v>
       </c>
       <c r="K24">
@@ -1385,10 +1472,14 @@
       <c r="R24">
         <v>642.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>1.4375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2">
         <v>0.23958333333333301</v>
@@ -1417,10 +1508,14 @@
       <c r="R25">
         <v>664.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="B26" s="2">
         <v>0.25</v>
@@ -1455,10 +1550,14 @@
       <c r="R26">
         <v>686</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="B27" s="2">
         <v>0.26041666666666702</v>
@@ -1487,10 +1586,14 @@
       <c r="R27">
         <v>707.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="B28" s="2">
         <v>0.27083333333333298</v>
@@ -1519,10 +1622,14 @@
       <c r="R28">
         <v>729.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2">
         <v>0.28125</v>
@@ -1551,11 +1658,14 @@
       <c r="R29">
         <v>751.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" ref="A30:A61" si="4">1/4</f>
-        <v>0.25</v>
+        <v>7.25</v>
       </c>
       <c r="B30" s="2">
         <v>0.29166666666666702</v>
@@ -1608,10 +1718,14 @@
       <c r="R30">
         <v>773</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="B31" s="2">
         <v>0.30208333333333298</v>
@@ -1640,10 +1754,14 @@
       <c r="R31">
         <v>765.4375</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>6</v>
+        <v>7.75</v>
       </c>
       <c r="B32" s="2">
         <v>0.3125</v>
@@ -1672,10 +1790,14 @@
       <c r="R32">
         <v>757.875</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>1.9375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2">
         <v>0.32291666666666702</v>
@@ -1704,10 +1826,14 @@
       <c r="R33">
         <v>750.3125</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="B34" s="2">
         <v>0.33333333333333298</v>
@@ -1742,10 +1868,14 @@
       <c r="R34">
         <v>742.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>2.0625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="B35" s="2">
         <v>0.34375</v>
@@ -1755,23 +1885,23 @@
         <v>72.875</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:J35" si="5">N35+0.1*N35</f>
+        <f t="shared" ref="F35:J35" si="3">N35+0.1*N35</f>
         <v>9.796875</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>88.137500000000003</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.9187500000000002</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>93.087500000000006</v>
       </c>
       <c r="J35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>808.70624999999995</v>
       </c>
       <c r="K35">
@@ -1798,10 +1928,14 @@
       <c r="R35">
         <v>735.1875</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="B36" s="2">
         <v>0.35416666666666702</v>
@@ -1830,10 +1964,14 @@
       <c r="R36">
         <v>727.625</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>2.1875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>7.25</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2">
         <v>0.36458333333333298</v>
@@ -1862,10 +2000,14 @@
       <c r="R37">
         <v>720.0625</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>4</v>
+        <v>9.25</v>
       </c>
       <c r="B38" s="2">
         <v>0.375</v>
@@ -1900,11 +2042,14 @@
       <c r="R38">
         <v>712.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>2.3125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f t="shared" ref="A39:A70" si="6">1/4</f>
-        <v>0.25</v>
+        <v>9.5</v>
       </c>
       <c r="B39" s="2">
         <v>0.38541666666666702</v>
@@ -1933,10 +2078,14 @@
       <c r="R39">
         <v>704.9375</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="B40" s="2">
         <v>0.39583333333333298</v>
@@ -1965,10 +2114,14 @@
       <c r="R40">
         <v>697.375</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>2.4375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>7.75</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2">
         <v>0.40625</v>
@@ -1978,23 +2131,23 @@
         <v>54.725000000000001</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41:J41" si="7">N41+0.1*N41</f>
+        <f t="shared" ref="F41:J41" si="4">N41+0.1*N41</f>
         <v>9.6731249999999989</v>
       </c>
       <c r="G41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>79.0625</v>
       </c>
       <c r="H41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.9812500000000002</v>
       </c>
       <c r="I41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>87.3125</v>
       </c>
       <c r="J41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>758.79375000000005</v>
       </c>
       <c r="K41">
@@ -2021,10 +2174,14 @@
       <c r="R41">
         <v>689.8125</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="B42" s="2">
         <v>0.41666666666666702</v>
@@ -2059,10 +2216,14 @@
       <c r="R42">
         <v>682.25</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>2.5625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="B43" s="2">
         <v>0.42708333333333298</v>
@@ -2091,10 +2252,14 @@
       <c r="R43">
         <v>674.6875</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="B44" s="2">
         <v>0.4375</v>
@@ -2123,10 +2288,14 @@
       <c r="R44">
         <v>667.125</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <f t="shared" si="0"/>
+        <v>2.6875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2">
         <v>0.44791666666666702</v>
@@ -2155,10 +2324,14 @@
       <c r="R45">
         <v>659.5625</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="B46" s="2">
         <v>0.45833333333333298</v>
@@ -2211,10 +2384,14 @@
       <c r="R46">
         <v>652</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46">
+        <f t="shared" si="0"/>
+        <v>2.8125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="B47" s="2">
         <v>0.46875</v>
@@ -2243,11 +2420,14 @@
       <c r="R47">
         <v>661.25</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47">
+        <f t="shared" si="0"/>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <f t="shared" ref="A48:A79" si="8">1/4</f>
-        <v>0.25</v>
+        <v>11.75</v>
       </c>
       <c r="B48" s="2">
         <v>0.47916666666666702</v>
@@ -2276,10 +2456,14 @@
       <c r="R48">
         <v>670.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48">
+        <f t="shared" si="0"/>
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="B49" s="2">
         <v>0.48958333333333298</v>
@@ -2308,10 +2492,14 @@
       <c r="R49">
         <v>679.75</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>9.5</v>
+        <v>12.25</v>
       </c>
       <c r="B50" s="2">
         <v>0.5</v>
@@ -2346,10 +2534,14 @@
       <c r="R50">
         <v>689</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>3.0625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="B51" s="2">
         <v>0.51041666666666696</v>
@@ -2359,23 +2551,23 @@
         <v>31.35</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51:J51" si="9">N51+0.1*N51</f>
+        <f t="shared" ref="F51:J51" si="5">N51+0.1*N51</f>
         <v>8.9856249999999989</v>
       </c>
       <c r="G51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>57.0625</v>
       </c>
       <c r="H51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>6.3250000000000002</v>
       </c>
       <c r="I51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>88.34375</v>
       </c>
       <c r="J51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>768.07500000000005</v>
       </c>
       <c r="K51">
@@ -2402,10 +2594,14 @@
       <c r="R51">
         <v>698.25</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>10</v>
+        <v>12.75</v>
       </c>
       <c r="B52" s="2">
         <v>0.52083333333333304</v>
@@ -2434,10 +2630,14 @@
       <c r="R52">
         <v>707.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>3.1875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="B53" s="2">
         <v>0.53125</v>
@@ -2466,10 +2666,14 @@
       <c r="R53">
         <v>716.75</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>10.5</v>
+        <v>13.25</v>
       </c>
       <c r="B54" s="2">
         <v>0.54166666666666696</v>
@@ -2504,10 +2708,14 @@
       <c r="R54">
         <v>726</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S54">
+        <f t="shared" si="0"/>
+        <v>3.3125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>10.75</v>
+        <v>13.5</v>
       </c>
       <c r="B55" s="2">
         <v>0.55208333333333304</v>
@@ -2536,10 +2744,14 @@
       <c r="R55">
         <v>735.25</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S55">
+        <f t="shared" si="0"/>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>6</v>
+        <v>13.75</v>
       </c>
       <c r="B56" s="2">
         <v>0.5625</v>
@@ -2568,11 +2780,14 @@
       <c r="R56">
         <v>744.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S56">
+        <f t="shared" si="0"/>
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <f t="shared" ref="A57:A98" si="10">1/4</f>
-        <v>0.25</v>
+        <v>14</v>
       </c>
       <c r="B57" s="2">
         <v>0.57291666666666696</v>
@@ -2582,23 +2797,23 @@
         <v>18.329999999999998</v>
       </c>
       <c r="F57">
-        <f t="shared" ref="F57:J57" si="11">N57-0.06*N57</f>
+        <f t="shared" ref="F57:J57" si="6">N57-0.06*N57</f>
         <v>7.0793749999999998</v>
       </c>
       <c r="G57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>33.957500000000003</v>
       </c>
       <c r="H57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>3.9950000000000001</v>
       </c>
       <c r="I57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>81.486249999999998</v>
       </c>
       <c r="J57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>708.52499999999998</v>
       </c>
       <c r="K57">
@@ -2625,10 +2840,14 @@
       <c r="R57">
         <v>753.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S57">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>11</v>
+        <v>14.25</v>
       </c>
       <c r="B58" s="2">
         <v>0.58333333333333304</v>
@@ -2663,10 +2882,14 @@
       <c r="R58">
         <v>763</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S58">
+        <f t="shared" si="0"/>
+        <v>3.5625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>11.25</v>
+        <v>14.5</v>
       </c>
       <c r="B59" s="2">
         <v>0.59375</v>
@@ -2695,10 +2918,14 @@
       <c r="R59">
         <v>772.25</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S59">
+        <f t="shared" si="0"/>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>11.5</v>
+        <v>14.75</v>
       </c>
       <c r="B60" s="2">
         <v>0.60416666666666696</v>
@@ -2727,10 +2954,14 @@
       <c r="R60">
         <v>781.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S60">
+        <f t="shared" si="0"/>
+        <v>3.6875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="B61" s="2">
         <v>0.61458333333333304</v>
@@ -2759,10 +2990,14 @@
       <c r="R61">
         <v>790.75</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S61">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>12</v>
+        <v>15.25</v>
       </c>
       <c r="B62" s="2">
         <v>0.625</v>
@@ -2815,10 +3050,14 @@
       <c r="R62">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S62">
+        <f t="shared" si="0"/>
+        <v>3.8125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>12.25</v>
+        <v>15.5</v>
       </c>
       <c r="B63" s="2">
         <v>0.63541666666666696</v>
@@ -2847,10 +3086,14 @@
       <c r="R63">
         <v>781.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S63">
+        <f t="shared" si="0"/>
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>12.5</v>
+        <v>15.75</v>
       </c>
       <c r="B64" s="2">
         <v>0.64583333333333304</v>
@@ -2879,10 +3122,14 @@
       <c r="R64">
         <v>762.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S64">
+        <f t="shared" si="0"/>
+        <v>3.9375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B65" s="2">
         <v>0.65625</v>
@@ -2911,11 +3158,14 @@
       <c r="R65">
         <v>743.75</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S65">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <f t="shared" ref="A66:A98" si="12">1/4</f>
-        <v>0.25</v>
+        <v>16.25</v>
       </c>
       <c r="B66" s="2">
         <v>0.66666666666666696</v>
@@ -2950,10 +3200,14 @@
       <c r="R66">
         <v>725</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S66">
+        <f t="shared" si="0"/>
+        <v>4.0625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>12.75</v>
+        <v>16.5</v>
       </c>
       <c r="B67" s="2">
         <v>0.67708333333333304</v>
@@ -2963,23 +3217,23 @@
         <v>7.7549999999999999</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:J67" si="13">N67-0.06*N67</f>
+        <f t="shared" ref="F67:J67" si="7">N67-0.06*N67</f>
         <v>5.6987500000000004</v>
       </c>
       <c r="G67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>18.388750000000002</v>
       </c>
       <c r="H67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2.5262500000000001</v>
       </c>
       <c r="I67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>72.086250000000007</v>
       </c>
       <c r="J67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>663.875</v>
       </c>
       <c r="K67">
@@ -3006,10 +3260,14 @@
       <c r="R67">
         <v>706.25</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S67">
+        <f t="shared" ref="S67:S98" si="8">A67*15/60</f>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>13</v>
+        <v>16.75</v>
       </c>
       <c r="B68" s="2">
         <v>0.6875</v>
@@ -3038,10 +3296,14 @@
       <c r="R68">
         <v>687.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68">
+        <f t="shared" si="8"/>
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>13.25</v>
+        <v>17</v>
       </c>
       <c r="B69" s="2">
         <v>0.69791666666666696</v>
@@ -3070,10 +3332,14 @@
       <c r="R69">
         <v>668.75</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S69">
+        <f t="shared" si="8"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>13.5</v>
+        <v>17.25</v>
       </c>
       <c r="B70" s="2">
         <v>0.70833333333333304</v>
@@ -3108,10 +3374,14 @@
       <c r="R70">
         <v>650</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S70">
+        <f t="shared" si="8"/>
+        <v>4.3125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>13.75</v>
+        <v>17.5</v>
       </c>
       <c r="B71" s="2">
         <v>0.71875</v>
@@ -3140,10 +3410,14 @@
       <c r="R71">
         <v>631.25</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71">
+        <f t="shared" si="8"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>14</v>
+        <v>17.75</v>
       </c>
       <c r="B72" s="2">
         <v>0.72916666666666696</v>
@@ -3172,10 +3446,14 @@
       <c r="R72">
         <v>612.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S72">
+        <f t="shared" si="8"/>
+        <v>4.4375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>14.25</v>
+        <v>18</v>
       </c>
       <c r="B73" s="2">
         <v>0.73958333333333304</v>
@@ -3185,23 +3463,23 @@
         <v>3.5249999999999999</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73:J73" si="14">N73-0.06*N73</f>
+        <f t="shared" ref="F73:J73" si="9">N73-0.06*N73</f>
         <v>4.6412500000000003</v>
       </c>
       <c r="G73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>14.51125</v>
       </c>
       <c r="H73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>2.1737500000000001</v>
       </c>
       <c r="I73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>54.813749999999999</v>
       </c>
       <c r="J73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>558.125</v>
       </c>
       <c r="K73">
@@ -3228,10 +3506,14 @@
       <c r="R73">
         <v>593.75</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>8</v>
+        <v>18.25</v>
       </c>
       <c r="B74" s="2">
         <v>0.75</v>
@@ -3266,11 +3548,14 @@
       <c r="R74">
         <v>575</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S74">
+        <f t="shared" si="8"/>
+        <v>4.5625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <f t="shared" ref="A75:A98" si="15">1/4</f>
-        <v>0.25</v>
+        <v>18.5</v>
       </c>
       <c r="B75" s="2">
         <v>0.76041666666666696</v>
@@ -3299,10 +3584,14 @@
       <c r="R75">
         <v>556.25</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S75">
+        <f t="shared" si="8"/>
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>14.5</v>
+        <v>18.75</v>
       </c>
       <c r="B76" s="2">
         <v>0.77083333333333304</v>
@@ -3331,10 +3620,14 @@
       <c r="R76">
         <v>537.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S76">
+        <f t="shared" si="8"/>
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>14.75</v>
+        <v>19</v>
       </c>
       <c r="B77" s="2">
         <v>0.78125</v>
@@ -3363,10 +3656,14 @@
       <c r="R77">
         <v>518.75</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S77">
+        <f t="shared" si="8"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>15</v>
+        <v>19.25</v>
       </c>
       <c r="B78" s="2">
         <v>0.79166666666666696</v>
@@ -3419,10 +3716,14 @@
       <c r="R78">
         <v>500</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S78">
+        <f t="shared" si="8"/>
+        <v>4.8125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>15.25</v>
+        <v>19.5</v>
       </c>
       <c r="B79" s="2">
         <v>0.80208333333333304</v>
@@ -3451,10 +3752,14 @@
       <c r="R79">
         <v>449.625</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S79">
+        <f t="shared" si="8"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>15.5</v>
+        <v>19.75</v>
       </c>
       <c r="B80" s="2">
         <v>0.8125</v>
@@ -3483,10 +3788,14 @@
       <c r="R80">
         <v>399.25</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S80">
+        <f t="shared" si="8"/>
+        <v>4.9375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>15.75</v>
+        <v>20</v>
       </c>
       <c r="B81" s="2">
         <v>0.82291666666666696</v>
@@ -3515,10 +3824,14 @@
       <c r="R81">
         <v>348.875</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S81">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>16</v>
+        <v>20.25</v>
       </c>
       <c r="B82" s="2">
         <v>0.83333333333333304</v>
@@ -3534,23 +3847,23 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82:J82" si="16">N82+0.12*N82</f>
+        <f t="shared" ref="F82:J82" si="10">N82+0.12*N82</f>
         <v>2.2400000000000002</v>
       </c>
       <c r="G82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>8.9600000000000009</v>
       </c>
       <c r="H82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="I82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>30.8</v>
       </c>
       <c r="J82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>334.32</v>
       </c>
       <c r="K82">
@@ -3577,10 +3890,14 @@
       <c r="R82">
         <v>298.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S82">
+        <f t="shared" si="8"/>
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>9</v>
+        <v>20.5</v>
       </c>
       <c r="B83" s="2">
         <v>0.84375</v>
@@ -3609,11 +3926,14 @@
       <c r="R83">
         <v>248.125</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S83">
+        <f t="shared" si="8"/>
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <f t="shared" ref="A84:A98" si="17">1/4</f>
-        <v>0.25</v>
+        <v>20.75</v>
       </c>
       <c r="B84" s="2">
         <v>0.85416666666666696</v>
@@ -3642,10 +3962,14 @@
       <c r="R84">
         <v>197.75</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S84">
+        <f t="shared" si="8"/>
+        <v>5.1875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>16.25</v>
+        <v>21</v>
       </c>
       <c r="B85" s="2">
         <v>0.86458333333333304</v>
@@ -3674,10 +3998,14 @@
       <c r="R85">
         <v>147.375</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S85">
+        <f t="shared" si="8"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>16.5</v>
+        <v>21.25</v>
       </c>
       <c r="B86" s="2">
         <v>0.875</v>
@@ -3730,10 +4058,14 @@
       <c r="R86">
         <v>97</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S86">
+        <f t="shared" si="8"/>
+        <v>5.3125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>16.75</v>
+        <v>21.5</v>
       </c>
       <c r="B87" s="2">
         <v>0.88541666666666696</v>
@@ -3762,10 +4094,14 @@
       <c r="R87">
         <v>88.916666666666671</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S87">
+        <f t="shared" si="8"/>
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>17</v>
+        <v>21.75</v>
       </c>
       <c r="B88" s="2">
         <v>0.89583333333333304</v>
@@ -3794,10 +4130,14 @@
       <c r="R88">
         <v>80.833333333333329</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S88">
+        <f t="shared" si="8"/>
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>17.25</v>
+        <v>22</v>
       </c>
       <c r="B89" s="2">
         <v>0.90625</v>
@@ -3826,10 +4166,14 @@
       <c r="R89">
         <v>72.75</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S89">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>17.5</v>
+        <v>22.25</v>
       </c>
       <c r="B90" s="2">
         <v>0.91666666666666696</v>
@@ -3864,10 +4208,14 @@
       <c r="R90">
         <v>64.666666666666657</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S90">
+        <f t="shared" si="8"/>
+        <v>5.5625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>17.75</v>
+        <v>22.5</v>
       </c>
       <c r="B91" s="2">
         <v>0.92708333333333304</v>
@@ -3896,10 +4244,14 @@
       <c r="R91">
         <v>56.583333333333329</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S91">
+        <f t="shared" si="8"/>
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>10</v>
+        <v>22.75</v>
       </c>
       <c r="B92" s="2">
         <v>0.9375</v>
@@ -3909,23 +4261,23 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" ref="F92:J92" si="18">N92+0.12*N92</f>
+        <f t="shared" ref="F92:J92" si="11">N92+0.12*N92</f>
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="H92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>6.72</v>
       </c>
       <c r="J92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>54.32</v>
       </c>
       <c r="K92">
@@ -3952,11 +4304,14 @@
       <c r="R92">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S92">
+        <f t="shared" si="8"/>
+        <v>5.6875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <f t="shared" ref="A93:A98" si="19">1/4</f>
-        <v>0.25</v>
+        <v>23</v>
       </c>
       <c r="B93" s="2">
         <v>0.94791666666666696</v>
@@ -3985,10 +4340,14 @@
       <c r="R93">
         <v>40.416666666666657</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S93">
+        <f t="shared" si="8"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>18</v>
+        <v>23.25</v>
       </c>
       <c r="B94" s="2">
         <v>0.95833333333333304</v>
@@ -4023,10 +4382,14 @@
       <c r="R94">
         <v>32.333333333333329</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S94">
+        <f t="shared" si="8"/>
+        <v>5.8125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>18.25</v>
+        <v>23.5</v>
       </c>
       <c r="B95" s="2">
         <v>0.96875</v>
@@ -4055,10 +4418,14 @@
       <c r="R95">
         <v>24.25</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S95">
+        <f t="shared" si="8"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>18.5</v>
+        <v>23.75</v>
       </c>
       <c r="B96" s="2">
         <v>0.97916666666666696</v>
@@ -4087,10 +4454,14 @@
       <c r="R96">
         <v>16.166666666666661</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S96">
+        <f t="shared" si="8"/>
+        <v>5.9375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>18.75</v>
+        <v>24</v>
       </c>
       <c r="B97" s="2">
         <v>0.98958333333333304</v>
@@ -4119,10 +4490,14 @@
       <c r="R97">
         <v>8.0833333333333286</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S97">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>19</v>
+        <v>24.25</v>
       </c>
       <c r="B98" s="2">
         <v>1</v>
@@ -4174,6 +4549,10 @@
       </c>
       <c r="R98">
         <v>0</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="8"/>
+        <v>6.0625</v>
       </c>
     </row>
   </sheetData>

--- a/pollutants.xlsx
+++ b/pollutants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA769FF-5CC8-4234-811A-9F9EB46016C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC001F6D-7D95-4835-B91D-5A61D0C7FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A98"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,6 +710,30 @@
       <c r="D6">
         <v>2.08</v>
       </c>
+      <c r="E6">
+        <f>M6-0.09*M6</f>
+        <v>1.82</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:J6" si="1">N6-0.09*N6</f>
+        <v>0.6825</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7.5075000000000003</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.6825</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>11.375</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>116.48</v>
+      </c>
       <c r="K6">
         <v>1.0740000000000001</v>
       </c>
@@ -865,23 +889,23 @@
         <v>14.700000000000005</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:J10" si="1">N10-0.1*N10</f>
+        <f t="shared" ref="F10:J10" si="2">N10-0.1*N10</f>
         <v>1.35</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.85</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230.4</v>
       </c>
       <c r="K10">
@@ -1034,6 +1058,30 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <f>M14-0.09*M14</f>
+        <v>27.90666666666667</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="3">N14-0.09*N14</f>
+        <v>2.0474999999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14" si="4">O14-0.09*O14</f>
+        <v>22.522500000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14" si="5">P14-0.09*P14</f>
+        <v>2.0474999999999999</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14" si="6">Q14-0.09*Q14</f>
+        <v>34.125</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="7">R14-0.09*R14</f>
+        <v>349.44</v>
+      </c>
       <c r="K14">
         <v>2.1139999999999999</v>
       </c>
@@ -1185,22 +1233,28 @@
         <v>1.04</v>
       </c>
       <c r="E18">
-        <v>53</v>
+        <f>M18+0.1*M18</f>
+        <v>49.5</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <f t="shared" ref="F18" si="8">N18+0.1*N18</f>
+        <v>3.3</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <f t="shared" ref="G18" si="9">O18+0.1*O18</f>
+        <v>36.299999999999997</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <f t="shared" ref="H18" si="10">P18+0.1*P18</f>
+        <v>3.3</v>
       </c>
       <c r="I18">
+        <f t="shared" ref="I18" si="11">Q18+0.1*Q18</f>
         <v>55</v>
       </c>
       <c r="J18">
-        <v>500</v>
+        <f t="shared" ref="J18" si="12">R18+0.1*R18</f>
+        <v>563.20000000000005</v>
       </c>
       <c r="K18">
         <v>2.1139999999999999</v>
@@ -1310,6 +1364,30 @@
       <c r="B21" s="2">
         <v>0.19791666666666699</v>
       </c>
+      <c r="E21">
+        <f>M21-0.09*M21</f>
+        <v>48.912500000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="13">N21-0.09*N21</f>
+        <v>4.0949999999999998</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21" si="14">O21-0.09*O21</f>
+        <v>42.314999999999998</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21" si="15">P21-0.09*P21</f>
+        <v>2.5024999999999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21" si="16">Q21-0.09*Q21</f>
+        <v>54.372500000000002</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21" si="17">R21-0.09*R21</f>
+        <v>525.29750000000001</v>
+      </c>
       <c r="K21">
         <v>2.504</v>
       </c>
@@ -1429,23 +1507,23 @@
         <v>68.75</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:J24" si="2">N24+0.1*N24</f>
+        <f t="shared" ref="F24:J24" si="18">N24+0.1*N24</f>
         <v>6.6</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>66</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2.75</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>76.45</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>706.75</v>
       </c>
       <c r="K24">
@@ -1562,6 +1640,30 @@
       <c r="B27" s="2">
         <v>0.26041666666666702</v>
       </c>
+      <c r="E27">
+        <f>M27+0.11*M27</f>
+        <v>79.087500000000006</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:J27" si="19">N27+0.11*N27</f>
+        <v>8.3249999999999993</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="19"/>
+        <v>81.585000000000008</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="19"/>
+        <v>2.4975000000000001</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="19"/>
+        <v>87.967500000000001</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="19"/>
+        <v>785.60249999999996</v>
+      </c>
       <c r="K27">
         <v>3.2839999999999998</v>
       </c>
@@ -1677,22 +1779,28 @@
         <v>2.08</v>
       </c>
       <c r="E30">
-        <v>94</v>
+        <f>M30+0.11*M30</f>
+        <v>88.8</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <f t="shared" ref="F30" si="20">N30+0.11*N30</f>
+        <v>9.99</v>
       </c>
       <c r="G30">
-        <v>90</v>
+        <f t="shared" ref="G30" si="21">O30+0.11*O30</f>
+        <v>96.57</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <f t="shared" ref="H30" si="22">P30+0.11*P30</f>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I30">
-        <v>90</v>
+        <f t="shared" ref="I30" si="23">Q30+0.11*Q30</f>
+        <v>98.79</v>
       </c>
       <c r="J30">
-        <v>748</v>
+        <f t="shared" ref="J30" si="24">R30+0.11*R30</f>
+        <v>858.03</v>
       </c>
       <c r="K30">
         <v>3.6739999999999999</v>
@@ -1802,6 +1910,30 @@
       <c r="B33" s="2">
         <v>0.32291666666666702</v>
       </c>
+      <c r="E33">
+        <f>M33+0.11*M33</f>
+        <v>79.642499999999998</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33" si="25">N33+0.11*N33</f>
+        <v>9.9275625000000005</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33" si="26">O33+0.11*O33</f>
+        <v>91.991250000000008</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33" si="27">P33+0.11*P33</f>
+        <v>3.2606250000000001</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33" si="28">Q33+0.11*Q33</f>
+        <v>95.876249999999999</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33" si="29">R33+0.11*R33</f>
+        <v>832.84687499999995</v>
+      </c>
       <c r="K33">
         <v>4.4540000000000006</v>
       </c>
@@ -1885,23 +2017,23 @@
         <v>72.875</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:J35" si="3">N35+0.1*N35</f>
+        <f t="shared" ref="F35:J35" si="30">N35+0.1*N35</f>
         <v>9.796875</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>88.137500000000003</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>3.9187500000000002</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>93.087500000000006</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>808.70624999999995</v>
       </c>
       <c r="K35">
@@ -2018,6 +2150,30 @@
       <c r="D38">
         <v>1.04</v>
       </c>
+      <c r="E38">
+        <f>M38+0.07*M38</f>
+        <v>62.06</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:J38" si="31">N38+0.07*N38</f>
+        <v>9.4695</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="31"/>
+        <v>81.319999999999993</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="31"/>
+        <v>4.8150000000000004</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="31"/>
+        <v>87.74</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="31"/>
+        <v>762.375</v>
+      </c>
       <c r="K38">
         <v>5.7539999999999996</v>
       </c>
@@ -2131,23 +2287,23 @@
         <v>54.725000000000001</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41:J41" si="4">N41+0.1*N41</f>
+        <f t="shared" ref="F41:J41" si="32">N41+0.1*N41</f>
         <v>9.6731249999999989</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>79.0625</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>5.9812500000000002</v>
       </c>
       <c r="I41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>87.3125</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>758.79375000000005</v>
       </c>
       <c r="K41">
@@ -2264,6 +2420,30 @@
       <c r="B44" s="2">
         <v>0.4375</v>
       </c>
+      <c r="E44">
+        <f>M44+0.07*M44</f>
+        <v>44.405000000000001</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44" si="33">N44+0.07*N44</f>
+        <v>9.349124999999999</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44" si="34">O44+0.07*O44</f>
+        <v>72.492500000000007</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44" si="35">P44+0.07*P44</f>
+        <v>6.82125</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ref="I44" si="36">Q44+0.07*Q44</f>
+        <v>82.122500000000002</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44" si="37">R44+0.07*R44</f>
+        <v>713.82375000000002</v>
+      </c>
       <c r="K44">
         <v>3.371</v>
       </c>
@@ -2343,22 +2523,28 @@
         <v>1.04</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <f>M46+0.05*M46</f>
+        <v>37.799999999999997</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <f t="shared" ref="F46:J46" si="38">N46+0.05*N46</f>
+        <v>9.1349999999999998</v>
       </c>
       <c r="G46">
-        <v>60</v>
+        <f t="shared" si="38"/>
+        <v>68.25</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <f t="shared" si="38"/>
+        <v>7.35</v>
       </c>
       <c r="I46">
-        <v>60</v>
+        <f t="shared" si="38"/>
+        <v>78.75</v>
       </c>
       <c r="J46">
-        <v>645</v>
+        <f t="shared" si="38"/>
+        <v>684.6</v>
       </c>
       <c r="K46">
         <v>3.371</v>
@@ -2432,6 +2618,30 @@
       <c r="B48" s="2">
         <v>0.47916666666666702</v>
       </c>
+      <c r="E48">
+        <f>M48+0.05*M48</f>
+        <v>34.65</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48" si="39">N48+0.05*N48</f>
+        <v>8.9118749999999984</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48" si="40">O48+0.05*O48</f>
+        <v>62.737499999999997</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48" si="41">P48+0.05*P48</f>
+        <v>6.8250000000000002</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48" si="42">Q48+0.05*Q48</f>
+        <v>80.981250000000003</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48" si="43">R48+0.05*R48</f>
+        <v>704.02499999999998</v>
+      </c>
       <c r="K48">
         <v>3.6309999999999998</v>
       </c>
@@ -2551,23 +2761,23 @@
         <v>31.35</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51:J51" si="5">N51+0.1*N51</f>
+        <f t="shared" ref="F51:J51" si="44">N51+0.1*N51</f>
         <v>8.9856249999999989</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>57.0625</v>
       </c>
       <c r="H51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>6.3250000000000002</v>
       </c>
       <c r="I51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>88.34375</v>
       </c>
       <c r="J51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>768.07500000000005</v>
       </c>
       <c r="K51">
@@ -2684,6 +2894,30 @@
       <c r="D54">
         <v>1.04</v>
       </c>
+      <c r="E54">
+        <f>M54+0.1*M54</f>
+        <v>26.4</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54" si="45">N54+0.1*N54</f>
+        <v>8.6349999999999998</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54" si="46">O54+0.1*O54</f>
+        <v>48.4</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54" si="47">P54+0.1*P54</f>
+        <v>5.5</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54" si="48">Q54+0.1*Q54</f>
+        <v>91.85</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54" si="49">R54+0.1*R54</f>
+        <v>798.6</v>
+      </c>
       <c r="K54">
         <v>4.4109999999999996</v>
       </c>
@@ -2797,23 +3031,23 @@
         <v>18.329999999999998</v>
       </c>
       <c r="F57">
-        <f t="shared" ref="F57:J57" si="6">N57-0.06*N57</f>
+        <f t="shared" ref="F57:J57" si="50">N57-0.06*N57</f>
         <v>7.0793749999999998</v>
       </c>
       <c r="G57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="50"/>
         <v>33.957500000000003</v>
       </c>
       <c r="H57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="50"/>
         <v>3.9950000000000001</v>
       </c>
       <c r="I57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="50"/>
         <v>81.486249999999998</v>
       </c>
       <c r="J57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="50"/>
         <v>708.52499999999998</v>
       </c>
       <c r="K57">
@@ -2930,6 +3164,30 @@
       <c r="B60" s="2">
         <v>0.60416666666666696</v>
       </c>
+      <c r="E60">
+        <f>M60-0.06*M60</f>
+        <v>14.1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ref="F60" si="51">N60-0.06*N60</f>
+        <v>6.7797499999999999</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60" si="52">O60-0.06*O60</f>
+        <v>26.555</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60" si="53">P60-0.06*P60</f>
+        <v>3.29</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60" si="54">Q60-0.06*Q60</f>
+        <v>84.482500000000002</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60" si="55">R60-0.06*R60</f>
+        <v>734.61</v>
+      </c>
       <c r="K60">
         <v>3.891</v>
       </c>
@@ -3009,22 +3267,28 @@
         <v>4.16</v>
       </c>
       <c r="E62">
-        <v>17</v>
+        <f>M62-0.06*M62</f>
+        <v>11.28</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <f t="shared" ref="F62" si="56">N62-0.06*N62</f>
+        <v>6.58</v>
       </c>
       <c r="G62">
-        <v>20</v>
+        <f t="shared" ref="G62" si="57">O62-0.06*O62</f>
+        <v>21.62</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <f t="shared" ref="H62" si="58">P62-0.06*P62</f>
+        <v>2.82</v>
       </c>
       <c r="I62">
-        <v>85</v>
+        <f t="shared" ref="I62" si="59">Q62-0.06*Q62</f>
+        <v>86.48</v>
       </c>
       <c r="J62">
-        <v>760</v>
+        <f t="shared" ref="J62" si="60">R62-0.06*R62</f>
+        <v>752</v>
       </c>
       <c r="K62">
         <v>3.891</v>
@@ -3098,6 +3362,30 @@
       <c r="B64" s="2">
         <v>0.64583333333333304</v>
       </c>
+      <c r="E64">
+        <f>M64-0.06*M64</f>
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64" si="61">N64-0.06*N64</f>
+        <v>6.2275</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ref="G64" si="62">O64-0.06*O64</f>
+        <v>20.327500000000001</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64" si="63">P64-0.06*P64</f>
+        <v>2.7025000000000001</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ref="I64" si="64">Q64-0.06*Q64</f>
+        <v>80.722499999999997</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ref="J64" si="65">R64-0.06*R64</f>
+        <v>716.75</v>
+      </c>
       <c r="K64">
         <v>4.931</v>
       </c>
@@ -3217,23 +3505,23 @@
         <v>7.7549999999999999</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:J67" si="7">N67-0.06*N67</f>
+        <f t="shared" ref="F67:J67" si="66">N67-0.06*N67</f>
         <v>5.6987500000000004</v>
       </c>
       <c r="G67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="66"/>
         <v>18.388750000000002</v>
       </c>
       <c r="H67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="66"/>
         <v>2.5262500000000001</v>
       </c>
       <c r="I67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="66"/>
         <v>72.086250000000007</v>
       </c>
       <c r="J67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="66"/>
         <v>663.875</v>
       </c>
       <c r="K67">
@@ -3261,7 +3549,7 @@
         <v>706.25</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S98" si="8">A67*15/60</f>
+        <f t="shared" ref="S67:S98" si="67">A67*15/60</f>
         <v>4.125</v>
       </c>
     </row>
@@ -3297,7 +3585,7 @@
         <v>687.5</v>
       </c>
       <c r="S68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.1875</v>
       </c>
     </row>
@@ -3333,7 +3621,7 @@
         <v>668.75</v>
       </c>
       <c r="S69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.25</v>
       </c>
     </row>
@@ -3350,6 +3638,30 @@
       <c r="D70">
         <v>3.2</v>
       </c>
+      <c r="E70">
+        <f>M70-0.06*M70</f>
+        <v>5.64</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70" si="68">N70-0.06*N70</f>
+        <v>5.17</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ref="G70" si="69">O70-0.06*O70</f>
+        <v>16.45</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70" si="70">P70-0.06*P70</f>
+        <v>2.35</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70" si="71">Q70-0.06*Q70</f>
+        <v>63.45</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ref="J70" si="72">R70-0.06*R70</f>
+        <v>611</v>
+      </c>
       <c r="K70">
         <v>8.0510000000000002</v>
       </c>
@@ -3375,7 +3687,7 @@
         <v>650</v>
       </c>
       <c r="S70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.3125</v>
       </c>
     </row>
@@ -3411,7 +3723,7 @@
         <v>631.25</v>
       </c>
       <c r="S71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.375</v>
       </c>
     </row>
@@ -3447,7 +3759,7 @@
         <v>612.5</v>
       </c>
       <c r="S72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.4375</v>
       </c>
     </row>
@@ -3463,23 +3775,23 @@
         <v>3.5249999999999999</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73:J73" si="9">N73-0.06*N73</f>
+        <f t="shared" ref="F73:J73" si="73">N73-0.06*N73</f>
         <v>4.6412500000000003</v>
       </c>
       <c r="G73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="73"/>
         <v>14.51125</v>
       </c>
       <c r="H73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="73"/>
         <v>2.1737500000000001</v>
       </c>
       <c r="I73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="73"/>
         <v>54.813749999999999</v>
       </c>
       <c r="J73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="73"/>
         <v>558.125</v>
       </c>
       <c r="K73">
@@ -3507,7 +3819,7 @@
         <v>593.75</v>
       </c>
       <c r="S73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.5</v>
       </c>
     </row>
@@ -3549,7 +3861,7 @@
         <v>575</v>
       </c>
       <c r="S74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.5625</v>
       </c>
     </row>
@@ -3560,6 +3872,30 @@
       <c r="B75" s="2">
         <v>0.76041666666666696</v>
       </c>
+      <c r="E75">
+        <f>M75-0.02*M75</f>
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75:J75" si="74">N75-0.02*N75</f>
+        <v>4.4712500000000004</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="74"/>
+        <v>13.78125</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="74"/>
+        <v>2.1437499999999998</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="74"/>
+        <v>51.143749999999997</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="74"/>
+        <v>545.125</v>
+      </c>
       <c r="K75">
         <v>6.9749999999999996</v>
       </c>
@@ -3585,7 +3921,7 @@
         <v>556.25</v>
       </c>
       <c r="S75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.625</v>
       </c>
     </row>
@@ -3621,7 +3957,7 @@
         <v>537.5</v>
       </c>
       <c r="S76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.6875</v>
       </c>
     </row>
@@ -3657,7 +3993,7 @@
         <v>518.75</v>
       </c>
       <c r="S77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.75</v>
       </c>
     </row>
@@ -3675,22 +4011,28 @@
         <v>0.2</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <f>M78+0.05*M78</f>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <f t="shared" ref="F78:J78" si="75">N78+0.05*N78</f>
+        <v>4.2</v>
       </c>
       <c r="G78">
-        <v>7</v>
+        <f t="shared" si="75"/>
+        <v>12.6</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <f t="shared" si="75"/>
+        <v>2.1</v>
       </c>
       <c r="I78">
-        <v>40</v>
+        <f t="shared" si="75"/>
+        <v>45.15</v>
       </c>
       <c r="J78">
-        <v>487</v>
+        <f t="shared" si="75"/>
+        <v>525</v>
       </c>
       <c r="K78">
         <v>6.6</v>
@@ -3717,7 +4059,7 @@
         <v>500</v>
       </c>
       <c r="S78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.8125</v>
       </c>
     </row>
@@ -3753,7 +4095,7 @@
         <v>449.625</v>
       </c>
       <c r="S79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.875</v>
       </c>
     </row>
@@ -3764,6 +4106,30 @@
       <c r="B80" s="2">
         <v>0.8125</v>
       </c>
+      <c r="E80">
+        <f>M80+0.05*M80</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80" si="76">N80+0.05*N80</f>
+        <v>3.15</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ref="G80" si="77">O80+0.05*O80</f>
+        <v>10.5</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ref="H80" si="78">P80+0.05*P80</f>
+        <v>1.575</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ref="I80" si="79">Q80+0.05*Q80</f>
+        <v>37.012500000000003</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ref="J80" si="80">R80+0.05*R80</f>
+        <v>419.21249999999998</v>
+      </c>
       <c r="K80">
         <v>5.9499999999999993</v>
       </c>
@@ -3789,7 +4155,7 @@
         <v>399.25</v>
       </c>
       <c r="S80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>4.9375</v>
       </c>
     </row>
@@ -3825,7 +4191,7 @@
         <v>348.875</v>
       </c>
       <c r="S81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5</v>
       </c>
     </row>
@@ -3843,28 +4209,28 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <f>M82+0.12*M82</f>
+        <f>M82+0.09*M82</f>
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82:J82" si="10">N82+0.12*N82</f>
-        <v>2.2400000000000002</v>
+        <f t="shared" ref="F82:J82" si="81">N82+0.09*N82</f>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G82">
-        <f t="shared" si="10"/>
-        <v>8.9600000000000009</v>
+        <f t="shared" si="81"/>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H82">
-        <f t="shared" si="10"/>
-        <v>1.1200000000000001</v>
+        <f t="shared" si="81"/>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I82">
-        <f t="shared" si="10"/>
-        <v>30.8</v>
+        <f t="shared" si="81"/>
+        <v>29.975000000000001</v>
       </c>
       <c r="J82">
-        <f t="shared" si="10"/>
-        <v>334.32</v>
+        <f t="shared" si="81"/>
+        <v>325.36500000000001</v>
       </c>
       <c r="K82">
         <v>5.3</v>
@@ -3891,7 +4257,7 @@
         <v>298.5</v>
       </c>
       <c r="S82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.0625</v>
       </c>
     </row>
@@ -3927,7 +4293,7 @@
         <v>248.125</v>
       </c>
       <c r="S83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.125</v>
       </c>
     </row>
@@ -3938,6 +4304,30 @@
       <c r="B84" s="2">
         <v>0.85416666666666696</v>
       </c>
+      <c r="E84">
+        <f>M84+0.09*M84</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84" si="82">N84+0.09*N84</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ref="G84" si="83">O84+0.09*O84</f>
+        <v>6.54</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ref="H84" si="84">P84+0.09*P84</f>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ref="I84" si="85">Q84+0.09*Q84</f>
+        <v>21.5275</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ref="J84" si="86">R84+0.09*R84</f>
+        <v>215.54750000000001</v>
+      </c>
       <c r="K84">
         <v>4.2</v>
       </c>
@@ -3963,7 +4353,7 @@
         <v>197.75</v>
       </c>
       <c r="S84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.1875</v>
       </c>
     </row>
@@ -3999,7 +4389,7 @@
         <v>147.375</v>
       </c>
       <c r="S85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.25</v>
       </c>
     </row>
@@ -4017,22 +4407,28 @@
         <v>0</v>
       </c>
       <c r="E86">
+        <f>M86+0.09*M86</f>
         <v>0</v>
       </c>
       <c r="F86">
+        <f t="shared" ref="F86" si="87">N86+0.09*N86</f>
         <v>0</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <f t="shared" ref="G86" si="88">O86+0.09*O86</f>
+        <v>4.3600000000000003</v>
       </c>
       <c r="H86">
+        <f t="shared" ref="H86" si="89">P86+0.09*P86</f>
         <v>0</v>
       </c>
       <c r="I86">
-        <v>10</v>
+        <f t="shared" ref="I86" si="90">Q86+0.09*Q86</f>
+        <v>13.08</v>
       </c>
       <c r="J86">
-        <v>90</v>
+        <f t="shared" ref="J86" si="91">R86+0.09*R86</f>
+        <v>105.73</v>
       </c>
       <c r="K86">
         <v>3.1</v>
@@ -4059,7 +4455,7 @@
         <v>97</v>
       </c>
       <c r="S86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.3125</v>
       </c>
     </row>
@@ -4095,7 +4491,7 @@
         <v>88.916666666666671</v>
       </c>
       <c r="S87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.375</v>
       </c>
     </row>
@@ -4131,7 +4527,7 @@
         <v>80.833333333333329</v>
       </c>
       <c r="S88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.4375</v>
       </c>
     </row>
@@ -4142,6 +4538,30 @@
       <c r="B89" s="2">
         <v>0.90625</v>
       </c>
+      <c r="E89">
+        <f>M89+0.09*M89</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ref="F89" si="92">N89+0.09*N89</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ref="G89" si="93">O89+0.09*O89</f>
+        <v>3.27</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ref="H89" si="94">P89+0.09*P89</f>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ref="I89" si="95">Q89+0.09*Q89</f>
+        <v>9.81</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ref="J89" si="96">R89+0.09*R89</f>
+        <v>79.297499999999999</v>
+      </c>
       <c r="K89">
         <v>2.5</v>
       </c>
@@ -4167,7 +4587,7 @@
         <v>72.75</v>
       </c>
       <c r="S89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.5</v>
       </c>
     </row>
@@ -4209,7 +4629,7 @@
         <v>64.666666666666657</v>
       </c>
       <c r="S90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.5625</v>
       </c>
     </row>
@@ -4245,7 +4665,7 @@
         <v>56.583333333333329</v>
       </c>
       <c r="S91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.625</v>
       </c>
     </row>
@@ -4261,23 +4681,23 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" ref="F92:J92" si="11">N92+0.12*N92</f>
+        <f t="shared" ref="F92:J92" si="97">N92+0.12*N92</f>
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="97"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="H92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="I92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="97"/>
         <v>6.72</v>
       </c>
       <c r="J92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="97"/>
         <v>54.32</v>
       </c>
       <c r="K92">
@@ -4305,7 +4725,7 @@
         <v>48.5</v>
       </c>
       <c r="S92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.6875</v>
       </c>
     </row>
@@ -4341,7 +4761,7 @@
         <v>40.416666666666657</v>
       </c>
       <c r="S93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.75</v>
       </c>
     </row>
@@ -4383,7 +4803,7 @@
         <v>32.333333333333329</v>
       </c>
       <c r="S94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.8125</v>
       </c>
     </row>
@@ -4394,6 +4814,30 @@
       <c r="B95" s="2">
         <v>0.96875</v>
       </c>
+      <c r="E95">
+        <f>M95+0.12*M95</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ref="F95" si="98">N95+0.12*N95</f>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ref="G95" si="99">O95+0.12*O95</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ref="H95" si="100">P95+0.12*P95</f>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ref="I95" si="101">Q95+0.12*Q95</f>
+        <v>3.36</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ref="J95" si="102">R95+0.12*R95</f>
+        <v>27.16</v>
+      </c>
       <c r="K95">
         <v>0.90000000000000013</v>
       </c>
@@ -4419,7 +4863,7 @@
         <v>24.25</v>
       </c>
       <c r="S95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.875</v>
       </c>
     </row>
@@ -4455,7 +4899,7 @@
         <v>16.166666666666661</v>
       </c>
       <c r="S96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>5.9375</v>
       </c>
     </row>
@@ -4491,7 +4935,7 @@
         <v>8.0833333333333286</v>
       </c>
       <c r="S97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>6</v>
       </c>
     </row>
@@ -4551,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="S98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="67"/>
         <v>6.0625</v>
       </c>
     </row>
